--- a/foundation/Data/output/CompaniesBefore2005.xlsx
+++ b/foundation/Data/output/CompaniesBefore2005.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEEEA1-AF0E-4BA5-BC25-BFFD4976810C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD45A06-3880-43B4-9BD5-8200CA96C297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3324" windowWidth="20880" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4032" yWindow="2904" windowWidth="15216" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ACME Corp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,30 @@
   </si>
   <si>
     <t>445$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrainWorks Industries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Military Industrial Inc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>837$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paradise Inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>753$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,13 +390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -394,6 +421,39 @@
       </c>
       <c r="C2">
         <v>1974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
